--- a/algorithm/结果.xlsx
+++ b/algorithm/结果.xlsx
@@ -1,37 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttft3\web\village\algorithm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39E30FB-6153-434D-89C0-D24107E65658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>rate_name</t>
+  </si>
+  <si>
+    <t>陕西西安</t>
+  </si>
+  <si>
+    <t>宁夏银川</t>
+  </si>
+  <si>
+    <t>广西桂林</t>
+  </si>
+  <si>
+    <t>安徽合肥</t>
+  </si>
+  <si>
+    <t>辽宁大连</t>
+  </si>
+  <si>
+    <t>山东淄博</t>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +117,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,207 +444,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>security</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ecosystem</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>rate_name</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.05906471944582807</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.02222194020128847</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.04992049488713492</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07641863317112643</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01191037446787504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2195361621732529</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>陕西西安</t>
-        </is>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1062720212601064</v>
+      </c>
+      <c r="B2">
+        <v>4.0899759933862599E-2</v>
+      </c>
+      <c r="C2">
+        <v>9.1879297584692862E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.15857837392957511</v>
+      </c>
+      <c r="E2">
+        <v>6.7869306765590928E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.46549875947382802</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.05782827869306605</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.02654830635621733</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04084553696815706</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03841751403985623</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03620845038187812</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1998480864391748</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>宁夏银川</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.4755598019358313E-2</v>
+      </c>
+      <c r="B3">
+        <v>4.8862491158938912E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.517672359997038E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.1233230877584776</v>
+      </c>
+      <c r="E3">
+        <v>0.1049874828048864</v>
+      </c>
+      <c r="F3">
+        <v>0.42710538334163162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.05038409461664557</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.06924133746017931</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06348702125142802</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2516146616639204</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3178966513141698</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7526237663063432</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>广西桂林</t>
-        </is>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.1109820990241247</v>
+      </c>
+      <c r="B4">
+        <v>0.12743955091089201</v>
+      </c>
+      <c r="C4">
+        <v>0.1168486596840398</v>
+      </c>
+      <c r="D4">
+        <v>0.10441706724617771</v>
+      </c>
+      <c r="E4">
+        <v>0.30513622979287403</v>
+      </c>
+      <c r="F4">
+        <v>0.76482360665810833</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.004221985611875358</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.05892435856705616</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03997138449444441</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01166934986052993</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3147992842733344</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4295863628072403</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>安徽合肥</t>
-        </is>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.0568629195061767E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.1084510217298533</v>
+      </c>
+      <c r="C5">
+        <v>7.3567834997238624E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.4030912671201312E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.14621695263069179</v>
+      </c>
+      <c r="F5">
+        <v>0.43283535122404682</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.05079867387326609</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0627952206830262</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01850572513328821</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07356467088673879</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01816589391736542</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2238301844936847</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>辽宁大连</t>
-        </is>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6.7191707968597511E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.1155753920524356</v>
+      </c>
+      <c r="C6">
+        <v>3.4060019444641002E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.1002161219507666</v>
+      </c>
+      <c r="E6">
+        <v>7.4501240853418582E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.39154448226985927</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.07765511283985557</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.02710644744285052</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02998677458682932</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05644089718041286</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01919979724207596</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2103890292920242</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>山东淄博</t>
-        </is>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.15278333970999591</v>
+      </c>
+      <c r="B7">
+        <v>4.9889756836271587E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.5191035106874189E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.1654300297538321E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.1417928431666042</v>
+      </c>
+      <c r="F7">
+        <v>0.49131127511728417</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>